--- a/quantifyVagusNerve/Plots/T4transport/complete_local_linhom1_2/complete_local_linhom1_2_all_result.xlsx
+++ b/quantifyVagusNerve/Plots/T4transport/complete_local_linhom1_2/complete_local_linhom1_2_all_result.xlsx
@@ -344,88 +344,88 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.501219406700017</v>
+        <v>0.0980084473777076</v>
       </c>
       <c r="C1" t="n">
-        <v>0.476196134685217</v>
+        <v>0.271819455219472</v>
       </c>
       <c r="D1" t="n">
-        <v>0.435650896000018</v>
+        <v>0.294430521056385</v>
       </c>
       <c r="E1" t="n">
-        <v>0.457059114684869</v>
+        <v>0.272904122489913</v>
       </c>
       <c r="F1" t="n">
-        <v>0.437841585147128</v>
+        <v>0.088568808895287</v>
       </c>
       <c r="G1" t="n">
-        <v>0.416773472415553</v>
+        <v>0.135826284725852</v>
       </c>
       <c r="H1" t="n">
-        <v>0.503800880631614</v>
+        <v>0.0838574264058118</v>
       </c>
       <c r="I1" t="n">
-        <v>0.421866532665124</v>
+        <v>0.139179066071398</v>
       </c>
       <c r="J1" t="n">
-        <v>0.645249374609486</v>
+        <v>0.191160037647645</v>
       </c>
       <c r="K1" t="n">
-        <v>0.479114749376067</v>
+        <v>0.0547964587463279</v>
       </c>
       <c r="L1" t="n">
-        <v>0.482925159748098</v>
+        <v>0.159388638566906</v>
       </c>
       <c r="M1" t="n">
-        <v>0.47162720790623</v>
+        <v>0.0855431483670429</v>
       </c>
       <c r="N1" t="n">
-        <v>0.435422962423061</v>
+        <v>0.0893649808562345</v>
       </c>
       <c r="O1" t="n">
-        <v>0.470736168420583</v>
+        <v>0.103018003597007</v>
       </c>
       <c r="P1" t="n">
-        <v>0.445284364381306</v>
+        <v>0.0577546821561026</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.470726135151838</v>
+        <v>0.122228419260898</v>
       </c>
       <c r="R1" t="n">
-        <v>0.431896874966981</v>
+        <v>0.0618584763468155</v>
       </c>
       <c r="S1" t="n">
-        <v>0.465280480468677</v>
+        <v>0.11116092708603</v>
       </c>
       <c r="T1" t="n">
-        <v>0.485396873885562</v>
+        <v>0.0497885685321034</v>
       </c>
       <c r="U1" t="n">
-        <v>0.445864060089716</v>
+        <v>0.0399143603338092</v>
       </c>
       <c r="V1" t="n">
-        <v>0.437842442565563</v>
+        <v>0.0470648129350571</v>
       </c>
       <c r="W1" t="n">
-        <v>0.426983310230123</v>
+        <v>0.0621722857891084</v>
       </c>
       <c r="X1" t="n">
-        <v>0.421916507907725</v>
+        <v>0.0468238436922874</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.43308869387842</v>
+        <v>0.0760708098824519</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.447146571852527</v>
+        <v>0.0752120080638864</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.484653288986317</v>
+        <v>0.0871355220216353</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.45966173178006</v>
+        <v>0.0502972838839708</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.511985502563111</v>
+        <v>0.119483969999975</v>
       </c>
     </row>
     <row r="2">
@@ -436,85 +436,85 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.502246537835441</v>
+        <v>0.285482537580351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46627862765157</v>
+        <v>0.306965253055522</v>
       </c>
       <c r="E2" t="n">
-        <v>0.482383495328525</v>
+        <v>0.28643266933016</v>
       </c>
       <c r="F2" t="n">
-        <v>0.468601326725959</v>
+        <v>0.126346918524072</v>
       </c>
       <c r="G2" t="n">
-        <v>0.446494039708863</v>
+        <v>0.162810069053749</v>
       </c>
       <c r="H2" t="n">
-        <v>0.533099348847175</v>
+        <v>0.123236959584255</v>
       </c>
       <c r="I2" t="n">
-        <v>0.455608179826434</v>
+        <v>0.16556819178377</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6484582379717</v>
+        <v>0.210564647177438</v>
       </c>
       <c r="K2" t="n">
-        <v>0.541301772338518</v>
+        <v>0.105916078094052</v>
       </c>
       <c r="L2" t="n">
-        <v>0.508650682613529</v>
+        <v>0.182663405849665</v>
       </c>
       <c r="M2" t="n">
-        <v>0.506663335478326</v>
+        <v>0.12437052223631</v>
       </c>
       <c r="N2" t="n">
-        <v>0.459023719085093</v>
+        <v>0.126777824064312</v>
       </c>
       <c r="O2" t="n">
-        <v>0.49552232399195</v>
+        <v>0.136738827324647</v>
       </c>
       <c r="P2" t="n">
-        <v>0.479030381480098</v>
+        <v>0.107107464156168</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.495644351843651</v>
+        <v>0.151607052570204</v>
       </c>
       <c r="R2" t="n">
-        <v>0.470429105414069</v>
+        <v>0.109444051657384</v>
       </c>
       <c r="S2" t="n">
-        <v>0.492593043506964</v>
+        <v>0.142909584188451</v>
       </c>
       <c r="T2" t="n">
-        <v>0.496913855187474</v>
+        <v>0.102857507151909</v>
       </c>
       <c r="U2" t="n">
-        <v>0.468586544548527</v>
+        <v>0.098554931891577</v>
       </c>
       <c r="V2" t="n">
-        <v>0.474147330643091</v>
+        <v>0.101789606728928</v>
       </c>
       <c r="W2" t="n">
-        <v>0.460906992377478</v>
+        <v>0.109489047888064</v>
       </c>
       <c r="X2" t="n">
-        <v>0.447582841382655</v>
+        <v>0.101585980098429</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.462167474139461</v>
+        <v>0.117891590780444</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.475369393371955</v>
+        <v>0.117370344858801</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.508553403059929</v>
+        <v>0.12525716560881</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.489740829470516</v>
+        <v>0.103275260824591</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.533040736240057</v>
+        <v>0.149532837418865</v>
       </c>
     </row>
     <row r="3">
@@ -528,82 +528,82 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.417056106905873</v>
+        <v>0.389164317200833</v>
       </c>
       <c r="E3" t="n">
-        <v>0.430379294262181</v>
+        <v>0.373625060013348</v>
       </c>
       <c r="F3" t="n">
-        <v>0.446097434666446</v>
+        <v>0.282502163838991</v>
       </c>
       <c r="G3" t="n">
-        <v>0.399400900302293</v>
+        <v>0.299132479590297</v>
       </c>
       <c r="H3" t="n">
-        <v>0.51507853674726</v>
+        <v>0.280843000803728</v>
       </c>
       <c r="I3" t="n">
-        <v>0.431748255503944</v>
+        <v>0.300358708617593</v>
       </c>
       <c r="J3" t="n">
-        <v>0.636844616904018</v>
+        <v>0.325716482253961</v>
       </c>
       <c r="K3" t="n">
-        <v>0.513870004626078</v>
+        <v>0.27305757210889</v>
       </c>
       <c r="L3" t="n">
-        <v>0.489182291302299</v>
+        <v>0.309988127496984</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4848867870224</v>
+        <v>0.281292194100577</v>
       </c>
       <c r="N3" t="n">
-        <v>0.411779243480158</v>
+        <v>0.283107634881923</v>
       </c>
       <c r="O3" t="n">
-        <v>0.47500456949159</v>
+        <v>0.287273730050994</v>
       </c>
       <c r="P3" t="n">
-        <v>0.455633124029626</v>
+        <v>0.275016454861313</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.476132199115145</v>
+        <v>0.29401970397526</v>
       </c>
       <c r="R3" t="n">
-        <v>0.446368486486864</v>
+        <v>0.27561561761628</v>
       </c>
       <c r="S3" t="n">
-        <v>0.472033252888108</v>
+        <v>0.289665301073954</v>
       </c>
       <c r="T3" t="n">
-        <v>0.478566863455695</v>
+        <v>0.274146187005375</v>
       </c>
       <c r="U3" t="n">
-        <v>0.448131063443387</v>
+        <v>0.272793651809106</v>
       </c>
       <c r="V3" t="n">
-        <v>0.450341939963043</v>
+        <v>0.27325452459402</v>
       </c>
       <c r="W3" t="n">
-        <v>0.436292084997773</v>
+        <v>0.276036805315366</v>
       </c>
       <c r="X3" t="n">
-        <v>0.425814617732279</v>
+        <v>0.273456574762258</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.439092490621746</v>
+        <v>0.279267708524274</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.453239553235521</v>
+        <v>0.279104165114997</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.489212590704997</v>
+        <v>0.282075889921081</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.468753965498408</v>
+        <v>0.273778119350678</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.526183704948699</v>
+        <v>0.292210759321707</v>
       </c>
     </row>
     <row r="4">
@@ -620,79 +620,79 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.39718272565609</v>
+        <v>0.388868609966371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.403023180945883</v>
+        <v>0.303516253021073</v>
       </c>
       <c r="G4" t="n">
-        <v>0.359971723354621</v>
+        <v>0.319123195531345</v>
       </c>
       <c r="H4" t="n">
-        <v>0.494305826843861</v>
+        <v>0.301985767735923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.366943701871574</v>
+        <v>0.319848921131768</v>
       </c>
       <c r="J4" t="n">
-        <v>0.538822957528525</v>
+        <v>0.344526379045633</v>
       </c>
       <c r="K4" t="n">
-        <v>0.481980938126916</v>
+        <v>0.294648839404501</v>
       </c>
       <c r="L4" t="n">
-        <v>0.452066418941322</v>
+        <v>0.328909868929829</v>
       </c>
       <c r="M4" t="n">
-        <v>0.448111331998683</v>
+        <v>0.302992543254191</v>
       </c>
       <c r="N4" t="n">
-        <v>0.374995865006483</v>
+        <v>0.304995939738082</v>
       </c>
       <c r="O4" t="n">
-        <v>0.43516354505372</v>
+        <v>0.308481950993193</v>
       </c>
       <c r="P4" t="n">
-        <v>0.413817145375578</v>
+        <v>0.296742586282165</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.435866579483831</v>
+        <v>0.314134607943667</v>
       </c>
       <c r="R4" t="n">
-        <v>0.41115405690038</v>
+        <v>0.29719886174322</v>
       </c>
       <c r="S4" t="n">
-        <v>0.431095180952937</v>
+        <v>0.310124898082892</v>
       </c>
       <c r="T4" t="n">
-        <v>0.440977508426708</v>
+        <v>0.296120652783488</v>
       </c>
       <c r="U4" t="n">
-        <v>0.404463094371183</v>
+        <v>0.295304541591516</v>
       </c>
       <c r="V4" t="n">
-        <v>0.407987846131073</v>
+        <v>0.295642165349711</v>
       </c>
       <c r="W4" t="n">
-        <v>0.391591699186446</v>
+        <v>0.297719656399183</v>
       </c>
       <c r="X4" t="n">
-        <v>0.376956032827692</v>
+        <v>0.295856549311652</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.395367263173491</v>
+        <v>0.300677776500586</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.409579170449526</v>
+        <v>0.300990633587321</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.45325572194198</v>
+        <v>0.303735382225862</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.427709456407538</v>
+        <v>0.295635602193952</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.484511830689509</v>
+        <v>0.312692191931313</v>
       </c>
     </row>
     <row r="5">
@@ -712,76 +712,76 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.423502151219444</v>
+        <v>0.283502786356905</v>
       </c>
       <c r="G5" t="n">
-        <v>0.377749049829255</v>
+        <v>0.300048552535961</v>
       </c>
       <c r="H5" t="n">
-        <v>0.497359658982552</v>
+        <v>0.281735816907443</v>
       </c>
       <c r="I5" t="n">
-        <v>0.407598640049891</v>
+        <v>0.301172842845761</v>
       </c>
       <c r="J5" t="n">
-        <v>0.623250429965731</v>
+        <v>0.325781934543513</v>
       </c>
       <c r="K5" t="n">
-        <v>0.498560720106166</v>
+        <v>0.274270928269717</v>
       </c>
       <c r="L5" t="n">
-        <v>0.467325762049455</v>
+        <v>0.309610283473336</v>
       </c>
       <c r="M5" t="n">
-        <v>0.46730216568327</v>
+        <v>0.282405637844277</v>
       </c>
       <c r="N5" t="n">
-        <v>0.391123706680404</v>
+        <v>0.28409523491837</v>
       </c>
       <c r="O5" t="n">
-        <v>0.454898896924096</v>
+        <v>0.28820772590082</v>
       </c>
       <c r="P5" t="n">
-        <v>0.435602670750015</v>
+        <v>0.276185342714939</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.454706396874231</v>
+        <v>0.29475825786336</v>
       </c>
       <c r="R5" t="n">
-        <v>0.424956576775253</v>
+        <v>0.276694134129717</v>
       </c>
       <c r="S5" t="n">
-        <v>0.455705429236746</v>
+        <v>0.290681897203376</v>
       </c>
       <c r="T5" t="n">
-        <v>0.457328961009389</v>
+        <v>0.275186502975018</v>
       </c>
       <c r="U5" t="n">
-        <v>0.424264965253239</v>
+        <v>0.273770620730811</v>
       </c>
       <c r="V5" t="n">
-        <v>0.428668885797312</v>
+        <v>0.274328102550957</v>
       </c>
       <c r="W5" t="n">
-        <v>0.414431329960566</v>
+        <v>0.27727413782882</v>
       </c>
       <c r="X5" t="n">
-        <v>0.400540768717277</v>
+        <v>0.274469375734919</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.416395416728127</v>
+        <v>0.280268244056949</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.431325749381962</v>
+        <v>0.280084257649026</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.469728072191856</v>
+        <v>0.283095413530542</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.447758090100475</v>
+        <v>0.274836927916136</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.499397892820547</v>
+        <v>0.293234444041954</v>
       </c>
     </row>
     <row r="6">
@@ -804,73 +804,73 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.377360751272324</v>
+        <v>0.157282515551298</v>
       </c>
       <c r="H6" t="n">
-        <v>0.482550251723734</v>
+        <v>0.115587988705087</v>
       </c>
       <c r="I6" t="n">
-        <v>0.387400407377047</v>
+        <v>0.160022529314136</v>
       </c>
       <c r="J6" t="n">
-        <v>0.616811163637508</v>
+        <v>0.206570494501912</v>
       </c>
       <c r="K6" t="n">
-        <v>0.488098928760696</v>
+        <v>0.0964827340544855</v>
       </c>
       <c r="L6" t="n">
-        <v>0.45200921784613</v>
+        <v>0.177678931860478</v>
       </c>
       <c r="M6" t="n">
-        <v>0.448483528387514</v>
+        <v>0.117045481354022</v>
       </c>
       <c r="N6" t="n">
-        <v>0.394113756016654</v>
+        <v>0.119768413448956</v>
       </c>
       <c r="O6" t="n">
-        <v>0.437231984037738</v>
+        <v>0.130323332076223</v>
       </c>
       <c r="P6" t="n">
-        <v>0.415657666338704</v>
+        <v>0.0985402509799042</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.440095912008562</v>
+        <v>0.145785003668156</v>
       </c>
       <c r="R6" t="n">
-        <v>0.403305864218151</v>
+        <v>0.100893928695923</v>
       </c>
       <c r="S6" t="n">
-        <v>0.434999367553416</v>
+        <v>0.136645889943495</v>
       </c>
       <c r="T6" t="n">
-        <v>0.443759750621164</v>
+        <v>0.094325751164354</v>
       </c>
       <c r="U6" t="n">
-        <v>0.405833776058173</v>
+        <v>0.0897224192302277</v>
       </c>
       <c r="V6" t="n">
-        <v>0.411278873869287</v>
+        <v>0.0929221182343815</v>
       </c>
       <c r="W6" t="n">
-        <v>0.393434689930651</v>
+        <v>0.101184234589197</v>
       </c>
       <c r="X6" t="n">
-        <v>0.382667060491527</v>
+        <v>0.0928805098766791</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.397374827749842</v>
+        <v>0.11022745824081</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.41244125045386</v>
+        <v>0.109818134278852</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.455735697092076</v>
+        <v>0.118161661060306</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.432854473691407</v>
+        <v>0.0945003708435919</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.484775667129587</v>
+        <v>0.143441415631622</v>
       </c>
     </row>
     <row r="7">
@@ -896,70 +896,70 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.461982200696967</v>
+        <v>0.15438182229098</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3440991858347</v>
+        <v>0.189798654879199</v>
       </c>
       <c r="J7" t="n">
-        <v>0.607744406672053</v>
+        <v>0.229808394371897</v>
       </c>
       <c r="K7" t="n">
-        <v>0.471292326217709</v>
+        <v>0.140761830790203</v>
       </c>
       <c r="L7" t="n">
-        <v>0.429022763073992</v>
+        <v>0.204376452975264</v>
       </c>
       <c r="M7" t="n">
-        <v>0.426811866290945</v>
+        <v>0.155425051941172</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351103005968698</v>
+        <v>0.15765572376125</v>
       </c>
       <c r="O7" t="n">
-        <v>0.412548561223059</v>
+        <v>0.165707005435144</v>
       </c>
       <c r="P7" t="n">
-        <v>0.389811880374383</v>
+        <v>0.142425610079609</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.413678323157442</v>
+        <v>0.178038913314357</v>
       </c>
       <c r="R7" t="n">
-        <v>0.377597297515144</v>
+        <v>0.143982560035167</v>
       </c>
       <c r="S7" t="n">
-        <v>0.410047510896648</v>
+        <v>0.170827546883536</v>
       </c>
       <c r="T7" t="n">
-        <v>0.418826064351608</v>
+        <v>0.139750688936406</v>
       </c>
       <c r="U7" t="n">
-        <v>0.379022012608067</v>
+        <v>0.136522605828251</v>
       </c>
       <c r="V7" t="n">
-        <v>0.385776656748408</v>
+        <v>0.139537017440984</v>
       </c>
       <c r="W7" t="n">
-        <v>0.365340799699107</v>
+        <v>0.144303494367321</v>
       </c>
       <c r="X7" t="n">
-        <v>0.350477283083039</v>
+        <v>0.138675345267642</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.369355280164233</v>
+        <v>0.150677267226571</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.385499852545531</v>
+        <v>0.150332308148294</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.433733376258624</v>
+        <v>0.156581886976117</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.40759307980121</v>
+        <v>0.139688378969174</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.475034569174027</v>
+        <v>0.176031988879727</v>
       </c>
     </row>
     <row r="8">
@@ -988,67 +988,67 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.471019694531091</v>
+        <v>0.157418392906226</v>
       </c>
       <c r="J8" t="n">
-        <v>0.654251288151503</v>
+        <v>0.204688474678816</v>
       </c>
       <c r="K8" t="n">
-        <v>0.543353657301425</v>
+        <v>0.0914843323393144</v>
       </c>
       <c r="L8" t="n">
-        <v>0.51665757827733</v>
+        <v>0.175147144344888</v>
       </c>
       <c r="M8" t="n">
-        <v>0.514782186763634</v>
+        <v>0.113082481792989</v>
       </c>
       <c r="N8" t="n">
-        <v>0.475079819480502</v>
+        <v>0.11655562136793</v>
       </c>
       <c r="O8" t="n">
-        <v>0.509579391461454</v>
+        <v>0.127119423881722</v>
       </c>
       <c r="P8" t="n">
-        <v>0.490690039030668</v>
+        <v>0.0944452229194406</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.510237444880036</v>
+        <v>0.14299938564997</v>
       </c>
       <c r="R8" t="n">
-        <v>0.480612786059202</v>
+        <v>0.0967420605686895</v>
       </c>
       <c r="S8" t="n">
-        <v>0.507759557296899</v>
+        <v>0.133707193993517</v>
       </c>
       <c r="T8" t="n">
-        <v>0.51551858325426</v>
+        <v>0.0904453026478895</v>
       </c>
       <c r="U8" t="n">
-        <v>0.484525862454664</v>
+        <v>0.0852931651407674</v>
       </c>
       <c r="V8" t="n">
-        <v>0.488316939117501</v>
+        <v>0.0884054272163917</v>
       </c>
       <c r="W8" t="n">
-        <v>0.474331409949157</v>
+        <v>0.0973360728879306</v>
       </c>
       <c r="X8" t="n">
-        <v>0.46454076604635</v>
+        <v>0.0885124909023916</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.477845591687409</v>
+        <v>0.106628266140223</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.49067983054038</v>
+        <v>0.106007779396864</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.523431500346549</v>
+        <v>0.114699478844254</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.505180363442398</v>
+        <v>0.0901880067778706</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.545340046569666</v>
+        <v>0.140483915184593</v>
       </c>
     </row>
     <row r="9">
@@ -1080,64 +1080,64 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.615224305066036</v>
+        <v>0.232019751849455</v>
       </c>
       <c r="K9" t="n">
-        <v>0.473504336765921</v>
+        <v>0.143677955937039</v>
       </c>
       <c r="L9" t="n">
-        <v>0.438495045750085</v>
+        <v>0.206551396742684</v>
       </c>
       <c r="M9" t="n">
-        <v>0.435585198888895</v>
+        <v>0.158241949751744</v>
       </c>
       <c r="N9" t="n">
-        <v>0.37843794087098</v>
+        <v>0.160817010125535</v>
       </c>
       <c r="O9" t="n">
-        <v>0.421648629676731</v>
+        <v>0.168420437330629</v>
       </c>
       <c r="P9" t="n">
-        <v>0.399503978798628</v>
+        <v>0.145664763481699</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.42241066050069</v>
+        <v>0.18060485041837</v>
       </c>
       <c r="R9" t="n">
-        <v>0.387192855569624</v>
+        <v>0.147126914041531</v>
       </c>
       <c r="S9" t="n">
-        <v>0.418222598897043</v>
+        <v>0.173343995452839</v>
       </c>
       <c r="T9" t="n">
-        <v>0.427569332923383</v>
+        <v>0.143165115848706</v>
       </c>
       <c r="U9" t="n">
-        <v>0.390329570319601</v>
+        <v>0.140007335258034</v>
       </c>
       <c r="V9" t="n">
-        <v>0.393901903796121</v>
+        <v>0.141787301866669</v>
       </c>
       <c r="W9" t="n">
-        <v>0.376046544506981</v>
+        <v>0.147514982644323</v>
       </c>
       <c r="X9" t="n">
-        <v>0.361628098156129</v>
+        <v>0.141873657403569</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.380733593994803</v>
+        <v>0.153797949670499</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.394757594515835</v>
+        <v>0.153279580021038</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.443094355132794</v>
+        <v>0.159530351182813</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.414922600711978</v>
+        <v>0.143033822524112</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.474860492729848</v>
+        <v>0.17863572510001</v>
       </c>
     </row>
     <row r="10">
@@ -1172,61 +1172,61 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.665066830996337</v>
+        <v>0.195286620609769</v>
       </c>
       <c r="L10" t="n">
-        <v>0.642894628459811</v>
+        <v>0.243708057412818</v>
       </c>
       <c r="M10" t="n">
-        <v>0.641740179840654</v>
+        <v>0.205533030066048</v>
       </c>
       <c r="N10" t="n">
-        <v>0.611638263254139</v>
+        <v>0.206743118174994</v>
       </c>
       <c r="O10" t="n">
-        <v>0.638043097645517</v>
+        <v>0.212977232004237</v>
       </c>
       <c r="P10" t="n">
-        <v>0.626652044067136</v>
+        <v>0.195914765541832</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.637838455438572</v>
+        <v>0.222539887594053</v>
       </c>
       <c r="R10" t="n">
-        <v>0.619717010292164</v>
+        <v>0.197090297071341</v>
       </c>
       <c r="S10" t="n">
-        <v>0.63765477319908</v>
+        <v>0.216917755991815</v>
       </c>
       <c r="T10" t="n">
-        <v>0.632337801993509</v>
+        <v>0.193620019825228</v>
       </c>
       <c r="U10" t="n">
-        <v>0.616666749220753</v>
+        <v>0.191479686784096</v>
       </c>
       <c r="V10" t="n">
-        <v>0.624617713175739</v>
+        <v>0.193141876465682</v>
       </c>
       <c r="W10" t="n">
-        <v>0.615888700303007</v>
+        <v>0.19719938677101</v>
       </c>
       <c r="X10" t="n">
-        <v>0.607804243196875</v>
+        <v>0.192990942467633</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.613882581583338</v>
+        <v>0.201834400013964</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.627310084023261</v>
+        <v>0.20150101660688</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.639480287024448</v>
+        <v>0.206081929860693</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.634357213322978</v>
+        <v>0.193869225015716</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.654385500693986</v>
+        <v>0.22109098513382</v>
       </c>
     </row>
     <row r="11">
@@ -1264,58 +1264,58 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.53014923499983</v>
+        <v>0.16373551950873</v>
       </c>
       <c r="M11" t="n">
-        <v>0.509843062440662</v>
+        <v>0.0932422161679748</v>
       </c>
       <c r="N11" t="n">
-        <v>0.486451439646546</v>
+        <v>0.0983964781156641</v>
       </c>
       <c r="O11" t="n">
-        <v>0.518354471902502</v>
+        <v>0.110369616640417</v>
       </c>
       <c r="P11" t="n">
-        <v>0.492473774736118</v>
+        <v>0.0698266292990467</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.518656349231807</v>
+        <v>0.128368813817646</v>
       </c>
       <c r="R11" t="n">
-        <v>0.480775396587491</v>
+        <v>0.07250918257205</v>
       </c>
       <c r="S11" t="n">
-        <v>0.511337308222692</v>
+        <v>0.117580898442668</v>
       </c>
       <c r="T11" t="n">
-        <v>0.525756482501456</v>
+        <v>0.0652997411879543</v>
       </c>
       <c r="U11" t="n">
-        <v>0.496650935839065</v>
+        <v>0.0580147883521761</v>
       </c>
       <c r="V11" t="n">
-        <v>0.480475086060338</v>
+        <v>0.0613640775839551</v>
       </c>
       <c r="W11" t="n">
-        <v>0.477960178697618</v>
+        <v>0.0738383769948684</v>
       </c>
       <c r="X11" t="n">
-        <v>0.468836893303764</v>
+        <v>0.0619643360196869</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.482943145716354</v>
+        <v>0.0858764301902269</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.496469698578778</v>
+        <v>0.0850012736100619</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.523043128969777</v>
+        <v>0.0955904095903456</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.503168640846116</v>
+        <v>0.0642960483021732</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.546205435141404</v>
+        <v>0.125106948219629</v>
       </c>
     </row>
     <row r="12">
@@ -1356,55 +1356,55 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.491429865603852</v>
+        <v>0.176238571445671</v>
       </c>
       <c r="N12" t="n">
-        <v>0.443179333997037</v>
+        <v>0.1782592457224</v>
       </c>
       <c r="O12" t="n">
-        <v>0.481130985094469</v>
+        <v>0.185374790017917</v>
       </c>
       <c r="P12" t="n">
-        <v>0.462712664327883</v>
+        <v>0.165159270970984</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.481447754986542</v>
+        <v>0.196270152871684</v>
       </c>
       <c r="R12" t="n">
-        <v>0.452439604226036</v>
+        <v>0.166214618969154</v>
       </c>
       <c r="S12" t="n">
-        <v>0.479019044465681</v>
+        <v>0.18969240208295</v>
       </c>
       <c r="T12" t="n">
-        <v>0.486082216396305</v>
+        <v>0.162928072585464</v>
       </c>
       <c r="U12" t="n">
-        <v>0.453235038557373</v>
+        <v>0.160050946009956</v>
       </c>
       <c r="V12" t="n">
-        <v>0.460806690704321</v>
+        <v>0.16159523660308</v>
       </c>
       <c r="W12" t="n">
-        <v>0.444021843775673</v>
+        <v>0.166818786825415</v>
       </c>
       <c r="X12" t="n">
-        <v>0.431057318313983</v>
+        <v>0.161947209835019</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.447375567739544</v>
+        <v>0.172315393937127</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.460373623836604</v>
+        <v>0.171911098561273</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.498566490541033</v>
+        <v>0.17735935739769</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.476096410622481</v>
+        <v>0.162741422107418</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.522095957763488</v>
+        <v>0.194727097450129</v>
       </c>
     </row>
     <row r="13">
@@ -1448,52 +1448,52 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.442724912588559</v>
+        <v>0.117781701516868</v>
       </c>
       <c r="O13" t="n">
-        <v>0.47863356687296</v>
+        <v>0.128223134801317</v>
       </c>
       <c r="P13" t="n">
-        <v>0.457970569734122</v>
+        <v>0.0959501105902063</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.479958228975378</v>
+        <v>0.144025425392014</v>
       </c>
       <c r="R13" t="n">
-        <v>0.447668398139107</v>
+        <v>0.0982824598252435</v>
       </c>
       <c r="S13" t="n">
-        <v>0.476021980199429</v>
+        <v>0.134747544863619</v>
       </c>
       <c r="T13" t="n">
-        <v>0.485662135278649</v>
+        <v>0.0918537929050577</v>
       </c>
       <c r="U13" t="n">
-        <v>0.453126639729753</v>
+        <v>0.0868714234407395</v>
       </c>
       <c r="V13" t="n">
-        <v>0.452391570887725</v>
+        <v>0.0899524376105492</v>
       </c>
       <c r="W13" t="n">
-        <v>0.439654508630922</v>
+        <v>0.0987521451293745</v>
       </c>
       <c r="X13" t="n">
-        <v>0.431436051969213</v>
+        <v>0.0900069075468475</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.443037388256585</v>
+        <v>0.107974919091624</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.456659610942361</v>
+        <v>0.107313969765455</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.49297776187453</v>
+        <v>0.11589076601339</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.472354695031706</v>
+        <v>0.0917648202421089</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.518628704305184</v>
+        <v>0.141492069106191</v>
       </c>
     </row>
     <row r="14">
@@ -1540,49 +1540,49 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.428539021669968</v>
+        <v>0.13073531624222</v>
       </c>
       <c r="P14" t="n">
-        <v>0.40762882044956</v>
+        <v>0.0992998842645655</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.429557774179006</v>
+        <v>0.146332458578782</v>
       </c>
       <c r="R14" t="n">
-        <v>0.396128604943164</v>
+        <v>0.101860904025615</v>
       </c>
       <c r="S14" t="n">
-        <v>0.426485949445815</v>
+        <v>0.137354894941805</v>
       </c>
       <c r="T14" t="n">
-        <v>0.432216600834014</v>
+        <v>0.0946701689222019</v>
       </c>
       <c r="U14" t="n">
-        <v>0.395347442795903</v>
+        <v>0.0898293708460533</v>
       </c>
       <c r="V14" t="n">
-        <v>0.403325873675184</v>
+        <v>0.0936041399355677</v>
       </c>
       <c r="W14" t="n">
-        <v>0.384369925910362</v>
+        <v>0.101835104044332</v>
       </c>
       <c r="X14" t="n">
-        <v>0.369394943367463</v>
+        <v>0.0933582545102229</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.387588564910846</v>
+        <v>0.110795036976166</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.403497541479696</v>
+        <v>0.110339704400131</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.447153898805029</v>
+        <v>0.118729572815951</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.423922766554478</v>
+        <v>0.0951437554767838</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.476466714793079</v>
+        <v>0.144110473411474</v>
       </c>
     </row>
     <row r="15">
@@ -1632,46 +1632,46 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.447528687112524</v>
+        <v>0.111725094456637</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.467112738699599</v>
+        <v>0.154863417888295</v>
       </c>
       <c r="R15" t="n">
-        <v>0.437617422933349</v>
+        <v>0.113900154356616</v>
       </c>
       <c r="S15" t="n">
-        <v>0.463901861541154</v>
+        <v>0.146376929283803</v>
       </c>
       <c r="T15" t="n">
-        <v>0.471992007890811</v>
+        <v>0.107817110160193</v>
       </c>
       <c r="U15" t="n">
-        <v>0.438886691052514</v>
+        <v>0.103669394195705</v>
       </c>
       <c r="V15" t="n">
-        <v>0.443868359966722</v>
+        <v>0.106651368206067</v>
       </c>
       <c r="W15" t="n">
-        <v>0.427509150471401</v>
+        <v>0.114037423770809</v>
       </c>
       <c r="X15" t="n">
-        <v>0.416927641267074</v>
+        <v>0.106523372435393</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.43089263125589</v>
+        <v>0.122095961391579</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.443413421450396</v>
+        <v>0.121587262276793</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.484389999840448</v>
+        <v>0.129323625359118</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.461730444407342</v>
+        <v>0.108091595528147</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.511974091304036</v>
+        <v>0.152741189093126</v>
       </c>
     </row>
     <row r="16">
@@ -1724,43 +1724,43 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.449096373586576</v>
+        <v>0.129644497024549</v>
       </c>
       <c r="R16" t="n">
-        <v>0.414963242417713</v>
+        <v>0.0755193776929041</v>
       </c>
       <c r="S16" t="n">
-        <v>0.444909728530701</v>
+        <v>0.119250010422965</v>
       </c>
       <c r="T16" t="n">
-        <v>0.454896387799242</v>
+        <v>0.0660366188735002</v>
       </c>
       <c r="U16" t="n">
-        <v>0.419175704921775</v>
+        <v>0.0590035375545343</v>
       </c>
       <c r="V16" t="n">
-        <v>0.421255625552664</v>
+        <v>0.0640060402723974</v>
       </c>
       <c r="W16" t="n">
-        <v>0.405041736317362</v>
+        <v>0.0757598196660042</v>
       </c>
       <c r="X16" t="n">
-        <v>0.394523668130118</v>
+        <v>0.0638370381574504</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.408987367081848</v>
+        <v>0.087506545187372</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.423343317347492</v>
+        <v>0.0868091738304979</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.465122563207687</v>
+        <v>0.0973586171746712</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.441739733321153</v>
+        <v>0.0664710282316165</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.494923660647638</v>
+        <v>0.127005876194963</v>
       </c>
     </row>
     <row r="17">
@@ -1816,40 +1816,40 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.438791088219881</v>
+        <v>0.131488437981916</v>
       </c>
       <c r="S17" t="n">
-        <v>0.46435076634516</v>
+        <v>0.160321392892049</v>
       </c>
       <c r="T17" t="n">
-        <v>0.471637243476749</v>
+        <v>0.126360321592785</v>
       </c>
       <c r="U17" t="n">
-        <v>0.439553314877019</v>
+        <v>0.122786362787799</v>
       </c>
       <c r="V17" t="n">
-        <v>0.444737048671136</v>
+        <v>0.125271963753659</v>
       </c>
       <c r="W17" t="n">
-        <v>0.429167164586474</v>
+        <v>0.131654999161258</v>
       </c>
       <c r="X17" t="n">
-        <v>0.416095238000718</v>
+        <v>0.12517177470576</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.432511109276893</v>
+        <v>0.138680308256438</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.444294437878313</v>
+        <v>0.138151325508954</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.48485548161078</v>
+        <v>0.144894792024202</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.461841760753164</v>
+        <v>0.12652572553991</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.513305300566275</v>
+        <v>0.166142162582238</v>
       </c>
     </row>
     <row r="18">
@@ -1908,37 +1908,37 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.434792797141561</v>
+        <v>0.121214097945485</v>
       </c>
       <c r="T18" t="n">
-        <v>0.446882614168057</v>
+        <v>0.070017276478688</v>
       </c>
       <c r="U18" t="n">
-        <v>0.407722066975561</v>
+        <v>0.0634282871118681</v>
       </c>
       <c r="V18" t="n">
-        <v>0.41057359533598</v>
+        <v>0.067797204595456</v>
       </c>
       <c r="W18" t="n">
-        <v>0.393246088872598</v>
+        <v>0.0789883916766251</v>
       </c>
       <c r="X18" t="n">
-        <v>0.380984491824035</v>
+        <v>0.0677783170891152</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.398460579580288</v>
+        <v>0.0903212554053006</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.4127463932582</v>
+        <v>0.0896468190404536</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.457174826196509</v>
+        <v>0.0998995921676934</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.431425706239431</v>
+        <v>0.0701362426483402</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.486028983149381</v>
+        <v>0.128808390047246</v>
       </c>
     </row>
     <row r="19">
@@ -2000,34 +2000,34 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.469571952131502</v>
+        <v>0.115770435805132</v>
       </c>
       <c r="U19" t="n">
-        <v>0.436645699617402</v>
+        <v>0.111902918382481</v>
       </c>
       <c r="V19" t="n">
-        <v>0.439828911158981</v>
+        <v>0.114492070152469</v>
       </c>
       <c r="W19" t="n">
-        <v>0.424817183041943</v>
+        <v>0.121445079233421</v>
       </c>
       <c r="X19" t="n">
-        <v>0.411861725032501</v>
+        <v>0.114438813545033</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.428252679927878</v>
+        <v>0.129041971636749</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.440573928553778</v>
+        <v>0.128521119122962</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.48110776819969</v>
+        <v>0.135867256934836</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.457870811454761</v>
+        <v>0.115906235436049</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.509877266048174</v>
+        <v>0.158197166964662</v>
       </c>
     </row>
     <row r="20">
@@ -2092,31 +2092,31 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.442764378674191</v>
+        <v>0.0503681424738697</v>
       </c>
       <c r="V20" t="n">
-        <v>0.450262993731399</v>
+        <v>0.056992075772033</v>
       </c>
       <c r="W20" t="n">
-        <v>0.435498333184942</v>
+        <v>0.0697296974487495</v>
       </c>
       <c r="X20" t="n">
-        <v>0.418993863491084</v>
+        <v>0.0564167657478219</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.437169495607498</v>
+        <v>0.0823407014594341</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.449451055425333</v>
+        <v>0.0817531271805193</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.48871556295165</v>
+        <v>0.0927354518491217</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.466483812353956</v>
+        <v>0.0594928454902846</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.513062734311366</v>
+        <v>0.12388967070685</v>
       </c>
     </row>
     <row r="21">
@@ -2184,28 +2184,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.415694836119087</v>
+        <v>0.0485557159388027</v>
       </c>
       <c r="W21" t="n">
-        <v>0.396853257344908</v>
+        <v>0.0631622572851483</v>
       </c>
       <c r="X21" t="n">
-        <v>0.382455289750126</v>
+        <v>0.0479313751509232</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.400141702301034</v>
+        <v>0.0768785926144715</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.415089839268788</v>
+        <v>0.0761246128745223</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.45716979813985</v>
+        <v>0.0879846600790415</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.434074063315087</v>
+        <v>0.0515387496485437</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.486624500444098</v>
+        <v>0.120343187332331</v>
       </c>
     </row>
     <row r="22">
@@ -2276,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.400028903106193</v>
+        <v>0.0679761961784043</v>
       </c>
       <c r="X22" t="n">
-        <v>0.388286323120245</v>
+        <v>0.054342917972226</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.403951423735644</v>
+        <v>0.0808760300951177</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.418720044930546</v>
+        <v>0.0801237105804308</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.460151579209072</v>
+        <v>0.0914548391269852</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.436137253502647</v>
+        <v>0.0574206034429495</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.488982548376387</v>
+        <v>0.122573938788506</v>
       </c>
     </row>
     <row r="23">
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.370102693078864</v>
+        <v>0.0676942187658122</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.38620975448294</v>
+        <v>0.09041059067486</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.401265602149203</v>
+        <v>0.0897152310652105</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.446543261580536</v>
+        <v>0.0999451883749963</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.421203519625851</v>
+        <v>0.0703076184856219</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.477682567262445</v>
+        <v>0.129085815566996</v>
       </c>
     </row>
     <row r="24">
@@ -2460,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.372775365611201</v>
+        <v>0.0807612558865993</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.388874205520893</v>
+        <v>0.0799530920480894</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.434430998445082</v>
+        <v>0.091278575029378</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.408461332417934</v>
+        <v>0.0571360054694336</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.466627956911194</v>
+        <v>0.122759591054536</v>
       </c>
     </row>
     <row r="25">
@@ -2552,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.406060886257203</v>
+        <v>0.100055521836895</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.448374161823933</v>
+        <v>0.109063601558974</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.425261080197537</v>
+        <v>0.0828401773946709</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.479233812008014</v>
+        <v>0.136192569612545</v>
       </c>
     </row>
     <row r="26">
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.463263536403978</v>
+        <v>0.108531054318134</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.437867927828401</v>
+        <v>0.0820282492758094</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.493095318329379</v>
+        <v>0.135759555517118</v>
       </c>
     </row>
     <row r="27">
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.477307874339135</v>
+        <v>0.0931201971589601</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.522087267502591</v>
+        <v>0.14262538720667</v>
       </c>
     </row>
     <row r="28">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.505768257565581</v>
+        <v>0.123938497172894</v>
       </c>
     </row>
     <row r="29">
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1" t="n">
         <v>180</v>
-      </c>
-      <c r="C1" t="n">
-        <v>135</v>
       </c>
       <c r="D1" t="n">
         <v>135</v>
@@ -2963,7 +2963,7 @@
         <v>270</v>
       </c>
       <c r="J1" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="K1" t="n">
         <v>180</v>
@@ -2993,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="T1" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="U1" t="n">
         <v>90</v>
@@ -3005,7 +3005,7 @@
         <v>270</v>
       </c>
       <c r="X1" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y1" t="n">
         <v>270</v>
@@ -3014,7 +3014,7 @@
         <v>225</v>
       </c>
       <c r="AA1" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AB1" t="n">
         <v>270</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D2" t="n">
         <v>270</v>
@@ -3040,58 +3040,58 @@
         <v>315</v>
       </c>
       <c r="F2" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K2" t="n">
         <v>315</v>
       </c>
       <c r="L2" t="n">
+        <v>270</v>
+      </c>
+      <c r="M2" t="n">
+        <v>180</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90</v>
+      </c>
+      <c r="P2" t="n">
         <v>45</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
         <v>225</v>
       </c>
-      <c r="N2" t="n">
-        <v>315</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>180</v>
-      </c>
       <c r="R2" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="S2" t="n">
         <v>225</v>
       </c>
       <c r="T2" t="n">
+        <v>135</v>
+      </c>
+      <c r="U2" t="n">
         <v>180</v>
       </c>
-      <c r="U2" t="n">
-        <v>135</v>
-      </c>
       <c r="V2" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="X2" t="n">
         <v>270</v>
@@ -3100,7 +3100,7 @@
         <v>90</v>
       </c>
       <c r="Z2" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>270</v>
       </c>
       <c r="H3" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I3" t="n">
         <v>90</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>225</v>
@@ -3156,16 +3156,16 @@
         <v>135</v>
       </c>
       <c r="O3" t="n">
+        <v>135</v>
+      </c>
+      <c r="P3" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>270</v>
+      </c>
+      <c r="R3" t="n">
         <v>180</v>
-      </c>
-      <c r="P3" t="n">
-        <v>135</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>225</v>
-      </c>
-      <c r="R3" t="n">
-        <v>225</v>
       </c>
       <c r="S3" t="n">
         <v>270</v>
@@ -3174,16 +3174,16 @@
         <v>180</v>
       </c>
       <c r="U3" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="V3" t="n">
         <v>135</v>
       </c>
       <c r="W3" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y3" t="n">
         <v>135</v>
@@ -3198,7 +3198,7 @@
         <v>90</v>
       </c>
       <c r="AC3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3218,13 +3218,13 @@
         <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="H4" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="I4" t="n">
         <v>135</v>
@@ -3242,19 +3242,19 @@
         <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O4" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="P4" t="n">
         <v>135</v>
       </c>
       <c r="Q4" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="R4" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="S4" t="n">
         <v>315</v>
@@ -3263,7 +3263,7 @@
         <v>225</v>
       </c>
       <c r="U4" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="V4" t="n">
         <v>180</v>
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="Z4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
         <v>90</v>
@@ -3287,7 +3287,7 @@
         <v>135</v>
       </c>
       <c r="AC4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -3307,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="G5" t="n">
         <v>135</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I5" t="n">
         <v>45</v>
@@ -3322,31 +3322,31 @@
         <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
         <v>270</v>
       </c>
       <c r="M5" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>90</v>
+      </c>
+      <c r="P5" t="n">
         <v>45</v>
-      </c>
-      <c r="P5" t="n">
-        <v>135</v>
       </c>
       <c r="Q5" t="n">
         <v>225</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="T5" t="n">
         <v>180</v>
@@ -3355,22 +3355,22 @@
         <v>180</v>
       </c>
       <c r="V5" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="W5" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
         <v>270</v>
       </c>
       <c r="Y5" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>45</v>
@@ -3402,7 +3402,7 @@
         <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="I6" t="n">
         <v>270</v>
@@ -3411,13 +3411,13 @@
         <v>315</v>
       </c>
       <c r="K6" t="n">
+        <v>180</v>
+      </c>
+      <c r="L6" t="n">
         <v>135</v>
       </c>
-      <c r="L6" t="n">
-        <v>180</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>270</v>
@@ -3429,43 +3429,43 @@
         <v>270</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>90</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>180</v>
+      </c>
+      <c r="V6" t="n">
+        <v>315</v>
+      </c>
+      <c r="W6" t="n">
+        <v>270</v>
+      </c>
+      <c r="X6" t="n">
         <v>135</v>
       </c>
-      <c r="T6" t="n">
-        <v>270</v>
-      </c>
-      <c r="U6" t="n">
-        <v>90</v>
-      </c>
-      <c r="V6" t="n">
-        <v>270</v>
-      </c>
-      <c r="W6" t="n">
-        <v>270</v>
-      </c>
-      <c r="X6" t="n">
-        <v>45</v>
-      </c>
       <c r="Y6" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="Z6" t="n">
         <v>225</v>
       </c>
       <c r="AA6" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AC6" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -3497,7 +3497,7 @@
         <v>270</v>
       </c>
       <c r="J7" t="n">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="K7" t="n">
         <v>135</v>
@@ -3518,7 +3518,7 @@
         <v>225</v>
       </c>
       <c r="Q7" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R7" t="n">
         <v>315</v>
@@ -3527,19 +3527,19 @@
         <v>90</v>
       </c>
       <c r="T7" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="U7" t="n">
         <v>45</v>
       </c>
       <c r="V7" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="W7" t="n">
         <v>225</v>
       </c>
       <c r="X7" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>225</v>
@@ -3551,10 +3551,10 @@
         <v>135</v>
       </c>
       <c r="AB7" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>225</v>
@@ -3607,7 +3607,7 @@
         <v>315</v>
       </c>
       <c r="Q8" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R8" t="n">
         <v>45</v>
@@ -3616,7 +3616,7 @@
         <v>180</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U8" t="n">
         <v>135</v>
@@ -3628,22 +3628,22 @@
         <v>315</v>
       </c>
       <c r="X8" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>270</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB8" t="n">
         <v>315</v>
       </c>
-      <c r="Z8" t="n">
-        <v>270</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>225</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -3684,7 +3684,7 @@
         <v>225</v>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N9" t="n">
         <v>315</v>
@@ -3705,7 +3705,7 @@
         <v>180</v>
       </c>
       <c r="T9" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="U9" t="n">
         <v>135</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
         <v>315</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Q10" t="n">
         <v>180</v>
@@ -3791,7 +3791,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="T10" t="n">
         <v>135</v>
@@ -3800,28 +3800,28 @@
         <v>135</v>
       </c>
       <c r="V10" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="W10" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="X10" t="n">
         <v>225</v>
       </c>
       <c r="Y10" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="Z10" t="n">
         <v>270</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -3865,7 +3865,7 @@
         <v>225</v>
       </c>
       <c r="N11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="O11" t="n">
         <v>135</v>
@@ -3886,7 +3886,7 @@
         <v>180</v>
       </c>
       <c r="U11" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="V11" t="n">
         <v>135</v>
@@ -3898,7 +3898,7 @@
         <v>315</v>
       </c>
       <c r="Y11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Z11" t="n">
         <v>45</v>
@@ -3966,25 +3966,25 @@
         <v>315</v>
       </c>
       <c r="R12" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="S12" t="n">
         <v>315</v>
       </c>
       <c r="T12" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="U12" t="n">
         <v>270</v>
       </c>
       <c r="V12" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="W12" t="n">
         <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="Y12" t="n">
         <v>90</v>
@@ -3993,13 +3993,13 @@
         <v>45</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="O13" t="n">
         <v>270</v>
@@ -4052,10 +4052,10 @@
         <v>225</v>
       </c>
       <c r="Q13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="S13" t="n">
         <v>45</v>
@@ -4064,7 +4064,7 @@
         <v>315</v>
       </c>
       <c r="U13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="V13" t="n">
         <v>270</v>
@@ -4073,7 +4073,7 @@
         <v>225</v>
       </c>
       <c r="X13" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
         <v>225</v>
@@ -4082,7 +4082,7 @@
         <v>180</v>
       </c>
       <c r="AA13" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
         <v>225</v>
@@ -4147,7 +4147,7 @@
         <v>90</v>
       </c>
       <c r="S14" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="T14" t="n">
         <v>45</v>
@@ -4156,25 +4156,25 @@
         <v>180</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="Y14" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>315</v>
       </c>
       <c r="AA14" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AB14" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>225</v>
@@ -4230,7 +4230,7 @@
         <v>315</v>
       </c>
       <c r="Q15" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R15" t="n">
         <v>45</v>
@@ -4239,7 +4239,7 @@
         <v>135</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U15" t="n">
         <v>135</v>
@@ -4251,7 +4251,7 @@
         <v>315</v>
       </c>
       <c r="X15" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="n">
         <v>315</v>
@@ -4266,7 +4266,7 @@
         <v>315</v>
       </c>
       <c r="AC15" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
@@ -4328,10 +4328,10 @@
         <v>180</v>
       </c>
       <c r="T16" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="U16" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="V16" t="n">
         <v>45</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>270</v>
       </c>
       <c r="AB16" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
         <v>270</v>
@@ -4414,37 +4414,37 @@
         <v>270</v>
       </c>
       <c r="S17" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="U17" t="n">
         <v>315</v>
       </c>
       <c r="V17" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="W17" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="X17" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="n">
         <v>135</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AB17" t="n">
         <v>180</v>
       </c>
       <c r="AC17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -4506,10 +4506,10 @@
         <v>90</v>
       </c>
       <c r="T18" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="V18" t="n">
         <v>315</v>
@@ -4518,7 +4518,7 @@
         <v>270</v>
       </c>
       <c r="X18" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="Y18" t="n">
         <v>270</v>
@@ -4533,7 +4533,7 @@
         <v>270</v>
       </c>
       <c r="AC18" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -4598,7 +4598,7 @@
         <v>270</v>
       </c>
       <c r="U19" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="V19" t="n">
         <v>225</v>
@@ -4610,19 +4610,19 @@
         <v>45</v>
       </c>
       <c r="Y19" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="n">
         <v>135</v>
       </c>
       <c r="AA19" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
         <v>180</v>
       </c>
       <c r="AC19" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -4687,28 +4687,28 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V20" t="n">
         <v>315</v>
       </c>
       <c r="W20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z20" t="n">
+        <v>225</v>
+      </c>
+      <c r="AA20" t="n">
         <v>180</v>
       </c>
-      <c r="AA20" t="n">
-        <v>225</v>
-      </c>
       <c r="AB20" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AC20" t="n">
         <v>180</v>
@@ -4779,28 +4779,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="W21" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="X21" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="n">
         <v>135</v>
       </c>
       <c r="AA21" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AC21" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
@@ -4874,7 +4874,7 @@
         <v>315</v>
       </c>
       <c r="X22" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="n">
         <v>315</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>270</v>
       </c>
       <c r="AB23" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -5153,7 +5153,7 @@
         <v>270</v>
       </c>
       <c r="AB25" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
         <v>270</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
